--- a/RuntimeStatisticsFullRun.xlsx
+++ b/RuntimeStatisticsFullRun.xlsx
@@ -3759,6 +3759,8 @@
         <c:axId val="570710904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="275"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3896,6 +3898,8 @@
         <c:axId val="570707952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4630,13 +4634,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51559</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>151157</xdr:rowOff>
+      <xdr:colOff>51558</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>406795</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>289890</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>46382</xdr:rowOff>
     </xdr:to>
@@ -4925,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11683,7 +11687,7 @@
         <v>238661</v>
       </c>
       <c r="B450">
-        <f t="shared" ref="B450:B513" si="7">(A450/1000)</f>
+        <f t="shared" ref="B450:B507" si="7">(A450/1000)</f>
         <v>238.661</v>
       </c>
       <c r="C450">
